--- a/Graph of Results.xlsx
+++ b/Graph of Results.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Downloads\4tb3-static-analysis-master\4tb3-static-analysis-master\Python Modules\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9A1872-442A-4722-A18D-C0BCEC232524}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="23812"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7515" activeTab="3" xr2:uid="{119EEE3B-9A05-47F9-B27C-776701C28587}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21520" windowHeight="13880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +86,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -136,26 +133,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -231,7 +208,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -257,13 +234,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -278,7 +255,7 @@
                   <c:v>0.207984924316406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.676404714584301</c:v>
+                  <c:v>21.6764047145843</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2045.27826166195</c:v>
@@ -286,7 +263,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -359,7 +336,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -385,13 +362,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,12 +386,12 @@
                   <c:v>13.6203563213348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1224.4540052412999</c:v>
+                  <c:v>1224.4540052413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -431,11 +408,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="384596584"/>
-        <c:axId val="384594944"/>
+        <c:axId val="2141569144"/>
+        <c:axId val="2141564312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384596584"/>
+        <c:axId val="2141569144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,26 +457,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -538,7 +495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384594944"/>
+        <c:crossAx val="2141564312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -546,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384594944"/>
+        <c:axId val="2141564312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,26 +569,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -664,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384596584"/>
+        <c:crossAx val="2141569144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -714,14 +651,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -773,7 +710,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -821,26 +758,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -916,7 +833,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -942,13 +859,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,18 +877,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.3757030963897701</c:v>
+                  <c:v>2.37570309638977</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>23.7689113616943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.12478756904599</c:v>
+                  <c:v>237.124787569046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -1018,13 +935,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000000000</c:v>
+                  <c:v>1.0E9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +956,7 @@
                   <c:v>0.115377187728881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2810132503509499</c:v>
+                  <c:v>1.28101325035095</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.2533078193664</c:v>
@@ -1047,7 +964,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -1064,11 +981,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="384596584"/>
-        <c:axId val="384594944"/>
+        <c:axId val="2140879560"/>
+        <c:axId val="2140886008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384596584"/>
+        <c:axId val="2140879560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,26 +1025,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1166,7 +1063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384594944"/>
+        <c:crossAx val="2140886008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1174,10 +1071,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384594944"/>
+        <c:axId val="2140886008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1241,26 +1138,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1293,7 +1170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384596584"/>
+        <c:crossAx val="2140879560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1344,7 +1221,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1396,7 +1273,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1436,6 +1313,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1444,26 +1322,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1539,7 +1397,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1565,13 +1423,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,18 +1441,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.4830670356750399</c:v>
+                  <c:v>1.48306703567504</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.0991458892822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.41616511344901</c:v>
+                  <c:v>149.416165113449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -1667,7 +1525,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1693,13 +1551,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,7 +1580,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -1739,11 +1597,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="384596584"/>
-        <c:axId val="384594944"/>
+        <c:axId val="2140962536"/>
+        <c:axId val="2140968952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384596584"/>
+        <c:axId val="2140962536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,6 +1633,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1783,26 +1642,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1841,7 +1680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384594944"/>
+        <c:crossAx val="2140968952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1849,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384594944"/>
+        <c:axId val="2140968952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,6 +1746,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1915,26 +1755,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1967,7 +1787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384596584"/>
+        <c:crossAx val="2140962536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1981,6 +1801,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2018,7 +1839,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2070,7 +1891,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2110,6 +1931,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2118,26 +1940,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2213,7 +2015,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2239,13 +2041,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,18 +2059,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.7926151752471897</c:v>
+                  <c:v>3.79261517524719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.785893440246497</c:v>
+                  <c:v>38.7858934402465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>473.72331619262599</c:v>
+                  <c:v>403.723316192626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0079-4766-93E0-59E6B8F1B45F}"/>
             </c:ext>
@@ -2341,7 +2143,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2367,13 +2169,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000000</c:v>
+                  <c:v>1.0E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000000</c:v>
+                  <c:v>1.0E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2388,15 +2190,15 @@
                   <c:v>3.38699173927307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.457906723022397</c:v>
+                  <c:v>35.4579067230224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>361.05530261993403</c:v>
+                  <c:v>361.055302619934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0079-4766-93E0-59E6B8F1B45F}"/>
             </c:ext>
@@ -2413,11 +2215,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="384596584"/>
-        <c:axId val="384594944"/>
+        <c:axId val="2141044440"/>
+        <c:axId val="2141050856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384596584"/>
+        <c:axId val="2141044440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,6 +2251,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2457,26 +2260,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2515,7 +2298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384594944"/>
+        <c:crossAx val="2141050856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2523,7 +2306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384594944"/>
+        <c:axId val="2141050856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,6 +2364,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2589,26 +2373,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2641,7 +2405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384596584"/>
+        <c:crossAx val="2141044440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2655,6 +2419,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2692,7 +2457,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -5203,7 +4968,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD720A92-9BDC-488B-B1A7-0BADB63F1263}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD720A92-9BDC-488B-B1A7-0BADB63F1263}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5244,7 +5009,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAA8EB9-BC47-4BFA-888A-29F28E3B61AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BAA8EB9-BC47-4BFA-888A-29F28E3B61AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5285,7 +5050,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740E3CDA-F5B5-4A91-8773-BA5B76E6BCF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{740E3CDA-F5B5-4A91-8773-BA5B76E6BCF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5326,7 +5091,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F9ED29-1F90-4FFD-BF4F-548C4883488E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5F9ED29-1F90-4FFD-BF4F-548C4883488E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5392,7 +5157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5444,7 +5209,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5638,7 +5403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6503,16 +6268,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249C11E8-6902-4667-8C6F-68DD37A68CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -6520,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>1000</v>
       </c>
@@ -6531,7 +6296,7 @@
         <v>0.109163761138916</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -6542,7 +6307,7 @@
         <v>13.6203563213348</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>1000000</v>
       </c>
@@ -6556,23 +6321,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5434BFD3-DB9B-42B7-A176-80B038E2B47E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -6580,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>10000000</v>
       </c>
@@ -6591,7 +6361,7 @@
         <v>0.115377187728881</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>100000000</v>
       </c>
@@ -6602,7 +6372,7 @@
         <v>1.2810132503509499</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>1000000000</v>
       </c>
@@ -6616,23 +6386,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B90BB77-A0F0-40A1-93DA-D5AFFBF1C305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="B3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -6640,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>1000000</v>
       </c>
@@ -6651,7 +6426,7 @@
         <v>1.2050196647644</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>10000000</v>
       </c>
@@ -6662,7 +6437,7 @@
         <v>12.7133288383483</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>100000000</v>
       </c>
@@ -6676,23 +6451,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9D5F70-4089-4913-B6B5-FED78B11AFA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -6700,34 +6480,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>1000000</v>
       </c>
       <c r="C4">
-        <v>4.7926151752471897</v>
+        <v>3.7926151752471902</v>
       </c>
       <c r="D4">
         <v>3.38699173927307</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>10000000</v>
       </c>
       <c r="C5">
-        <v>46.785893440246497</v>
+        <v>38.785893440246497</v>
       </c>
       <c r="D5">
         <v>35.457906723022397</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>100000000</v>
       </c>
       <c r="C6">
-        <v>473.72331619262599</v>
+        <v>403.72331619262599</v>
       </c>
       <c r="D6">
         <v>361.05530261993403</v>
@@ -6736,5 +6516,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Graph of Results.xlsx
+++ b/Graph of Results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="23812"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Downloads\4tb3-static-analysis-master\4tb3-static-analysis-master\Python Modules\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9A1872-442A-4722-A18D-C0BCEC232524}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21520" windowHeight="13880" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7515" activeTab="3" xr2:uid="{119EEE3B-9A05-47F9-B27C-776701C28587}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +18,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,7 +89,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -133,6 +136,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -208,7 +231,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -234,13 +257,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,7 +278,7 @@
                   <c:v>0.207984924316406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.6764047145843</c:v>
+                  <c:v>21.676404714584301</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2045.27826166195</c:v>
@@ -263,7 +286,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -336,7 +359,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -362,13 +385,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,12 +409,12 @@
                   <c:v>13.6203563213348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1224.4540052413</c:v>
+                  <c:v>1224.4540052412999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -408,11 +431,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2141569144"/>
-        <c:axId val="2141564312"/>
+        <c:axId val="384596584"/>
+        <c:axId val="384594944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141569144"/>
+        <c:axId val="384596584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,6 +480,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -495,7 +538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141564312"/>
+        <c:crossAx val="384594944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141564312"/>
+        <c:axId val="384594944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,6 +612,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -601,7 +664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141569144"/>
+        <c:crossAx val="384596584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -651,14 +714,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -710,7 +773,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -758,6 +821,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -833,7 +916,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -859,13 +942,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0E7</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0E8</c:v>
+                  <c:v>100000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0E9</c:v>
+                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,18 +960,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.37570309638977</c:v>
+                  <c:v>2.3757030963897701</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>23.7689113616943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.124787569046</c:v>
+                  <c:v>237.12478756904599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -935,13 +1018,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0E7</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0E8</c:v>
+                  <c:v>100000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0E9</c:v>
+                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,7 +1039,7 @@
                   <c:v>0.115377187728881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.28101325035095</c:v>
+                  <c:v>1.2810132503509499</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.2533078193664</c:v>
@@ -964,7 +1047,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -981,11 +1064,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2140879560"/>
-        <c:axId val="2140886008"/>
+        <c:axId val="384596584"/>
+        <c:axId val="384594944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140879560"/>
+        <c:axId val="384596584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,6 +1108,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1063,7 +1166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140886008"/>
+        <c:crossAx val="384594944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1071,10 +1174,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140886008"/>
+        <c:axId val="384594944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1138,6 +1241,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1170,7 +1293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140879560"/>
+        <c:crossAx val="384596584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1221,7 +1344,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1273,7 +1396,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1313,7 +1436,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1322,6 +1444,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1397,7 +1539,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1423,13 +1565,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0E7</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0E8</c:v>
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,18 +1583,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.48306703567504</c:v>
+                  <c:v>1.4830670356750399</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.0991458892822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.416165113449</c:v>
+                  <c:v>149.41616511344901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -1525,7 +1667,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1551,13 +1693,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0E7</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0E8</c:v>
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,7 +1722,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A56-4CDA-B9E7-F9FD39152920}"/>
             </c:ext>
@@ -1597,11 +1739,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2140962536"/>
-        <c:axId val="2140968952"/>
+        <c:axId val="384596584"/>
+        <c:axId val="384594944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140962536"/>
+        <c:axId val="384596584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +1775,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1642,6 +1783,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1680,7 +1841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140968952"/>
+        <c:crossAx val="384594944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1688,7 +1849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140968952"/>
+        <c:axId val="384594944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1907,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1755,6 +1915,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1787,7 +1967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140962536"/>
+        <c:crossAx val="384596584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1801,7 +1981,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1839,7 +2018,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1891,7 +2070,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1931,7 +2110,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1940,6 +2118,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2015,7 +2213,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2041,13 +2239,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0E7</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0E8</c:v>
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,18 +2257,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.79261517524719</c:v>
+                  <c:v>4.7926151752471897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.7858934402465</c:v>
+                  <c:v>46.785893440246497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>403.723316192626</c:v>
+                  <c:v>473.72331619262599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0079-4766-93E0-59E6B8F1B45F}"/>
             </c:ext>
@@ -2143,7 +2341,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2169,13 +2367,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0E7</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0E8</c:v>
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2190,15 +2388,15 @@
                   <c:v>3.38699173927307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.4579067230224</c:v>
+                  <c:v>35.457906723022397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>361.055302619934</c:v>
+                  <c:v>361.05530261993403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0079-4766-93E0-59E6B8F1B45F}"/>
             </c:ext>
@@ -2215,11 +2413,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2141044440"/>
-        <c:axId val="2141050856"/>
+        <c:axId val="384596584"/>
+        <c:axId val="384594944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141044440"/>
+        <c:axId val="384596584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2449,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2260,6 +2457,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2298,7 +2515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141050856"/>
+        <c:crossAx val="384594944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2306,7 +2523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141050856"/>
+        <c:axId val="384594944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2581,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2373,6 +2589,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2405,7 +2641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141044440"/>
+        <c:crossAx val="384596584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2419,7 +2655,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2457,7 +2692,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -4968,7 +5203,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD720A92-9BDC-488B-B1A7-0BADB63F1263}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD720A92-9BDC-488B-B1A7-0BADB63F1263}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5009,7 +5244,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BAA8EB9-BC47-4BFA-888A-29F28E3B61AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAA8EB9-BC47-4BFA-888A-29F28E3B61AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5050,7 +5285,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{740E3CDA-F5B5-4A91-8773-BA5B76E6BCF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740E3CDA-F5B5-4A91-8773-BA5B76E6BCF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5091,7 +5326,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5F9ED29-1F90-4FFD-BF4F-548C4883488E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F9ED29-1F90-4FFD-BF4F-548C4883488E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5157,7 +5392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5209,7 +5444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5403,7 +5638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6268,16 +6503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249C11E8-6902-4667-8C6F-68DD37A68CE9}">
   <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -6285,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1000</v>
       </c>
@@ -6296,7 +6531,7 @@
         <v>0.109163761138916</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -6307,7 +6542,7 @@
         <v>13.6203563213348</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1000000</v>
       </c>
@@ -6321,28 +6556,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5434BFD3-DB9B-42B7-A176-80B038E2B47E}">
   <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -6350,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>10000000</v>
       </c>
@@ -6361,7 +6591,7 @@
         <v>0.115377187728881</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100000000</v>
       </c>
@@ -6372,7 +6602,7 @@
         <v>1.2810132503509499</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1000000000</v>
       </c>
@@ -6386,28 +6616,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B90BB77-A0F0-40A1-93DA-D5AFFBF1C305}">
   <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="B3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -6415,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1000000</v>
       </c>
@@ -6426,7 +6651,7 @@
         <v>1.2050196647644</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>10000000</v>
       </c>
@@ -6437,7 +6662,7 @@
         <v>12.7133288383483</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>100000000</v>
       </c>
@@ -6451,28 +6676,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9D5F70-4089-4913-B6B5-FED78B11AFA0}">
   <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -6480,34 +6700,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1000000</v>
       </c>
       <c r="C4">
-        <v>3.7926151752471902</v>
+        <v>4.7926151752471897</v>
       </c>
       <c r="D4">
         <v>3.38699173927307</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>10000000</v>
       </c>
       <c r="C5">
-        <v>38.785893440246497</v>
+        <v>46.785893440246497</v>
       </c>
       <c r="D5">
         <v>35.457906723022397</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>100000000</v>
       </c>
       <c r="C6">
-        <v>403.72331619262599</v>
+        <v>473.72331619262599</v>
       </c>
       <c r="D6">
         <v>361.05530261993403</v>
@@ -6516,10 +6736,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>